--- a/2.Excel/hands-on/6.Funcoes_Mercado/7.PROCV/2.Dados_Bases_consulta_PROCV.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/7.PROCV/2.Dados_Bases_consulta_PROCV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\7.PROCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8793AB3A-AD96-4025-B67D-4ABB920E0F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9A1B5-4C04-4815-9C7D-4461A4A0670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8038" uniqueCount="2672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8038" uniqueCount="2671">
   <si>
     <t>Nome</t>
   </si>
@@ -8052,9 +8052,6 @@
   </si>
   <si>
     <t>João Lira</t>
-  </si>
-  <si>
-    <t>Luiza França</t>
   </si>
 </sst>
 </file>
@@ -8517,8 +8514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3267A-8BC0-4D47-9EC9-F7E0C25847F0}">
   <dimension ref="A1:G2000"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56657,10 +56654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9D4DD-E393-4199-8072-2883EEE0CAEA}">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56671,19 +56668,19 @@
   <sheetData>
     <row r="1" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="C1" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
@@ -56715,27 +56712,27 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="11">
-        <v>37136469624</v>
+        <v>35482561620</v>
       </c>
       <c r="C4" s="8" t="str">
-        <f>VLOOKUP(B4,Base!A1:G2000,3,0)</f>
-        <v>Delta</v>
+        <f>VLOOKUP($B$4,Base!$A$1:$G$2000,C1,0)</f>
+        <v>Beta</v>
       </c>
       <c r="D4" s="8" t="str">
-        <f>VLOOKUP(B4,Base!A1:G2000,4,0)</f>
-        <v>Raíza Azevedo</v>
+        <f>VLOOKUP($B$4,Base!$A$1:$G$2000,D1,0)</f>
+        <v>André Augusto</v>
       </c>
       <c r="E4" s="9">
-        <f>VLOOKUP(B4,Base!A1:G2000,5,0)</f>
-        <v>31081</v>
+        <f>VLOOKUP($B$4,Base!$A$1:$G$2000,E1,0)</f>
+        <v>31472</v>
       </c>
       <c r="F4" s="8" t="str">
-        <f>VLOOKUP(B4,Base!A1:G2000,6,0)</f>
-        <v>Minas Gerais</v>
+        <f>VLOOKUP($B$4,Base!$A$1:$G$2000,F1,0)</f>
+        <v>Goiás</v>
       </c>
       <c r="G4" s="8" t="str">
-        <f>VLOOKUP(B4,Base!A1:G2000,7,0)</f>
-        <v>(31) 960602412</v>
+        <f>VLOOKUP($B$4,Base!$A$1:$G$2000,G1,0)</f>
+        <v>(62) 981565118</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -56748,11 +56745,17 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>IFERROR(IF(VLOOKUP(B7,Base!D:D,1,0)=B7,"Encontrado"),"Não encontrado")</f>
-        <v>Não encontrado</v>
+        <v>Encontrado</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="str">
+        <f>IFERROR(IF(VLOOKUP(B7,Base!D:D,1,0)=B7,"Encontrado"),"Não encontrado")</f>
+        <v>Encontrado</v>
       </c>
     </row>
   </sheetData>
